--- a/Weekly Assignment 4 EXCEL.xlsx
+++ b/Weekly Assignment 4 EXCEL.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthapann/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthapann/Documents/GitHub/sammypann.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA6473F1-ED1C-1F4A-8CE8-B08203FB48D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6406DC5-F48A-A940-8184-25413FDAB255}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15620"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Assignment 4 EXCEL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -145,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -761,7 +772,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6134942818597842E-2"/>
+          <c:y val="0.13162514060742408"/>
+          <c:w val="0.91105571769934135"/>
+          <c:h val="0.56230286839145105"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1620,15 +1641,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1952,16 +1973,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2209,7 +2233,8 @@
         <v>39</v>
       </c>
       <c r="B14">
-        <v>28.27</v>
+        <f>AVERAGE(B2:B12)</f>
+        <v>28.272727272727273</v>
       </c>
     </row>
   </sheetData>
